--- a/backend/app/feature/automation/data/Automation_Key_Xpath.xlsx
+++ b/backend/app/feature/automation/data/Automation_Key_Xpath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="11460"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -71,13 +71,7 @@
     <t>Field</t>
   </si>
   <si>
-    <t>kirangoud.edega@gmail.com</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>kirangoud@mapsystems.in</t>
   </si>
   <si>
     <t>password</t>
@@ -86,7 +80,7 @@
     <t>//*[@id='password']</t>
   </si>
   <si>
-    <t>Admin123</t>
+    <t>Admin1234</t>
   </si>
   <si>
     <t>button</t>
@@ -98,34 +92,82 @@
     <t>click</t>
   </si>
   <si>
-    <t>Hostel Management</t>
-  </si>
-  <si>
-    <t>ERPHostel</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'item drop') and .//span[contains(@class, 'item-label') and text()='ERP']]</t>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>notificationSystem</t>
+  </si>
+  <si>
+    <t>//a[contains(@href, '/notifications')]</t>
   </si>
   <si>
     <t>element</t>
   </si>
   <si>
-    <t>HostelManagement</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'item drop') and .//span[contains(@class, 'item-label') and text()='Hostel Management']]</t>
-  </si>
-  <si>
-    <t>Hostel</t>
-  </si>
-  <si>
-    <t>//a[contains(@href, '/hostel')]</t>
-  </si>
-  <si>
-    <t>AddHostel</t>
-  </si>
-  <si>
-    <t>//button[@id='createBtn']</t>
+    <t>SystemCreateBtn</t>
+  </si>
+  <si>
+    <t>//*[@id='createBtn']</t>
+  </si>
+  <si>
+    <t>SystemType</t>
+  </si>
+  <si>
+    <t>//mat-select[@id='notificationType']</t>
+  </si>
+  <si>
+    <t>TypeSystem</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='System']</t>
+  </si>
+  <si>
+    <t>SystemTag</t>
+  </si>
+  <si>
+    <t>//*[@id='tag']</t>
+  </si>
+  <si>
+    <t>DayField</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>SystemTitle</t>
+  </si>
+  <si>
+    <t>//*[@id='title']</t>
+  </si>
+  <si>
+    <t>SystemMessage</t>
+  </si>
+  <si>
+    <t>//*[@id='message']</t>
+  </si>
+  <si>
+    <t>SystemDoneBtn</t>
+  </si>
+  <si>
+    <t>//*[@id='doneBtn']</t>
+  </si>
+  <si>
+    <t>Systemupdate</t>
+  </si>
+  <si>
+    <t>(//a[@id='updateNotifiRowBtn'])[1]</t>
+  </si>
+  <si>
+    <t>Systemmessage</t>
+  </si>
+  <si>
+    <t>//textarea[@id='message']</t>
+  </si>
+  <si>
+    <t>newUpdate</t>
+  </si>
+  <si>
+    <t>SystemdoneBtn</t>
   </si>
 </sst>
 </file>
@@ -746,8 +788,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,17 +1176,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="97.25" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
@@ -1150,7 +1197,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1178,11 +1225,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1197,147 +1244,263 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4">
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="2:9">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="2:9">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="kirangoud.edega@gmail.com" tooltip="mailto:kirangoud.edega@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="kirangoud@mapsystems.in" tooltip="mailto:kirangoud@mapsystems.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 B5 G5:H5 J5 A4:C4 A3:E3 A2:E2 G4:H4 J4 E4 G3:H3 J3 G2:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 C4 A4 C3:E3 A3 A2 C2:E2 H4 E4 H3 H2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>